--- a/Released/BOM/H1AR0.xlsx
+++ b/Released/BOM/H1AR0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HEXABITZ\Modules\Hardware\Modules Hardware Design\H1AR0x-Hardware\Released\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8943F8DF-E322-49FE-86D9-9708DD38D13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE5E73E-9A02-4DDC-8CF1-B22CA1AA3745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5868" yWindow="-24" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H1AR0" sheetId="1" r:id="rId1"/>
@@ -642,6 +642,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -662,9 +665,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1043,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1088,11 +1088,11 @@
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="22">
         <v>0</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1105,11 +1105,11 @@
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1122,9 +1122,9 @@
       <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
       <c r="G6" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1323,7 +1323,7 @@
       <c r="E17" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="21">
         <v>2</v>
       </c>
     </row>
